--- a/medicine/Enfance/Marie_de_Heredia/Marie_de_Heredia.xlsx
+++ b/medicine/Enfance/Marie_de_Heredia/Marie_de_Heredia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marie de Heredia, qui signait ses œuvres Gérard d'Houville (elle a aussi écrit sous le pseudonyme de Gérardine[1]), Marie de Régnier de son nom d'épouse, est une romancière, poétesse et dramaturge française, née le 20 décembre 1875 à Paris 7e et morte le 6 février 1963 à Suresnes[2]. Elle est la deuxième des trois filles de José-Maria de Heredia, la benjamine étant Louise.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marie de Heredia, qui signait ses œuvres Gérard d'Houville (elle a aussi écrit sous le pseudonyme de Gérardine), Marie de Régnier de son nom d'épouse, est une romancière, poétesse et dramaturge française, née le 20 décembre 1875 à Paris 7e et morte le 6 février 1963 à Suresnes. Elle est la deuxième des trois filles de José-Maria de Heredia, la benjamine étant Louise.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tout enfant, Marie de Heredia, Marie Louise Antoinette de Heredia de son nom complet, fréquente poètes et artistes : Leconte de Lisle, Anna de Noailles, Paul Valéry ou Pierre Louÿs sont accueillis chez son père. Elle écrit ses premiers vers à la bibliothèque de l'Arsenal, dont son père est le directeur. Sa vie sentimentale et familiale est assez agitée, elle épouse le poète Henri de Régnier, puis devient la maîtresse de Pierre Louÿs, père probable de son fils, Pierre de Régnier (1898-1943), futur journaliste. Elle a par ailleurs d'autres amants, Edmond Jaloux et son ami Jean-Louis Vaudoyer, le poète Gabriele D'Annunzio exilé à Paris entre 1910 et 1914 ou encore le dramaturge Henri Bernstein[3]. On lui prête aussi une relation saphique avec Georgie Raoul-Duval[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tout enfant, Marie de Heredia, Marie Louise Antoinette de Heredia de son nom complet, fréquente poètes et artistes : Leconte de Lisle, Anna de Noailles, Paul Valéry ou Pierre Louÿs sont accueillis chez son père. Elle écrit ses premiers vers à la bibliothèque de l'Arsenal, dont son père est le directeur. Sa vie sentimentale et familiale est assez agitée, elle épouse le poète Henri de Régnier, puis devient la maîtresse de Pierre Louÿs, père probable de son fils, Pierre de Régnier (1898-1943), futur journaliste. Elle a par ailleurs d'autres amants, Edmond Jaloux et son ami Jean-Louis Vaudoyer, le poète Gabriele D'Annunzio exilé à Paris entre 1910 et 1914 ou encore le dramaturge Henri Bernstein. On lui prête aussi une relation saphique avec Georgie Raoul-Duval.
 Son pseudonyme « Gérard d'Houville » vient du nom de jeune fille de sa grand-mère paternelle. Sous ce nom de plume, elle reçoit en 1918 le 1er prix de littérature de l'Académie française pour l'ensemble de son œuvre (première femme à obtenir ce prix).
-En 1894, elle contribue à créer une canacadémie, l'Académie canaque, parodie de l'Académie française[5].
+En 1894, elle contribue à créer une canacadémie, l'Académie canaque, parodie de l'Académie française.
 À partir de 1894, elle publie des poèmes dans la Revue des deux Mondes. Son premier roman, L'Inconstante, paraît en 1903.
 Plusieurs peintres ont fait d'elle son portrait, parmi lesquels Jacques-Émile Blanche, Jean-Louis Forain.
 Pierre Louÿs en a fait un portrait décapant[Quoi ?].
@@ -549,8 +563,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-L'Inconstante, 1903
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L'Inconstante, 1903
 Esclave, 1905
 Le Temps d'aimer, 1908
 Le Séducteur, 1914
@@ -565,19 +584,155 @@
 La Vie amoureuse de la Belle Hélène, 1928
 Le Charmant Rendez-vous, 1929
 Les Rêves de Rikiki, 1930
-Enfantines et Amoureuses, 1946
-Recueil de nouvelles
-« Le papillon rouge »  (ill. Edmond Dulac), L'Illustration,‎ décembre 1909, p. 13-16 (lire en ligne).
-Chez le magicien, 1926
-Ouvrages de littérature d'enfance et de jeunesse
-Proprette et Cochonnet, 1926
-Victor Hugo raconté par l'image, 1930
-Poésie
-Vingt poèmes, 1925
+Enfantines et Amoureuses, 1946</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Marie_de_Heredia</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie_de_Heredia</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Recueil de nouvelles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>« Le papillon rouge »  (ill. Edmond Dulac), L'Illustration,‎ décembre 1909, p. 13-16 (lire en ligne).
+Chez le magicien, 1926</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Marie_de_Heredia</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie_de_Heredia</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Proprette et Cochonnet, 1926
+Victor Hugo raconté par l'image, 1930</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Marie_de_Heredia</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie_de_Heredia</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Poésie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Vingt poèmes, 1925
 Le Diadème de Flore, 1928
-Les Poésies de Gérard d'Houville, 1930
-Théâtre
-Aujourd'hui et demain, 1916
+Les Poésies de Gérard d'Houville, 1930</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Marie_de_Heredia</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie_de_Heredia</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Aujourd'hui et demain, 1916
 Il faut toujours compter sur l'imprévu, 1916
 La nuit porte conseil, 1917
 Le Chien chinois, 1920
@@ -585,9 +740,43 @@
 L'heure exacte ou nul n'échappe à son destin, 1927
 Il ne faut pas dire : Fontaine.., 1927
 Je crois que je vous aime… : sept proverbes, 1927
-Lettres à Henri Mondor : autour de Stéphane Mallarmé, 2011 (publication posthume)
-Autres publications
-Billet à M. Alfred de Musset après la représentation de Fantasio, 1925
+Lettres à Henri Mondor : autour de Stéphane Mallarmé, 2011 (publication posthume)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Marie_de_Heredia</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie_de_Heredia</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Autres publications</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Billet à M. Alfred de Musset après la représentation de Fantasio, 1925
 Falbalas et Fanfreluches : almanach des modes présentes, passées &amp; futures pour 1925, 1925
 Paris et les voyages, 1925
 Opinions candides, 1926
@@ -598,63 +787,67 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Marie_de_Heredia</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Marie_de_Heredia</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Marie_de_Heredia</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie_de_Heredia</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Prix</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1918 : Grand prix de littérature de l'Académie française, pour l'ensemble de son œuvre[6]
-1955 : Prix Gustave Le Métais-Larivière de l'Académie française[6]
-1958 : Grand prix de poésie de l'Académie française, pour l'ensemble de son œuvre poétique[6]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Marie_de_Heredia</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Marie_de_Heredia</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1918 : Grand prix de littérature de l'Académie française, pour l'ensemble de son œuvre
+1955 : Prix Gustave Le Métais-Larivière de l'Académie française
+1958 : Grand prix de poésie de l'Académie française, pour l'ensemble de son œuvre poétique</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Marie_de_Heredia</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie_de_Heredia</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Impasse Marie-de-Régnier, dans le 16e arrondissement de Paris.
 Le drame historique français Curiosa, réalisé par Lou Jeunet, retrace la vie de Marie de Hérédia. Il est sorti en 2019.</t>
